--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/59_Muğla_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/59_Muğla_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{378502CF-78DA-47E5-A865-E0348F16324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{391A4109-38C6-4C34-AE16-74A1162ADE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{0E559876-646D-480D-9C6E-E223CF004AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{D3360F57-B3B9-4A50-ADB8-656B25F537F7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -987,13 +987,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E941741C-A2E5-4F74-9A97-6FFBCDE53BF1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{862F81B4-0BDD-44E9-AB14-EA326BCA0969}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{DF900CF3-B78E-442A-B5F7-41F760896744}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0B2F1086-D727-46FB-B1E8-BC4E619629C9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9C070F5F-A76C-47DC-825F-80758CC6ACAB}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{93A6296C-4497-4041-A0B9-C06D73BF5F36}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D2351E8D-0361-4589-A605-F4A2BBE2DCB2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{379EA3D7-F88D-4FAF-9EC3-4B2E83654309}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D9F41EAC-CFDF-4BF1-B6F5-F28B36CA33A3}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{18998C29-DDCB-4AB2-B30D-532EF199A877}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2D4CFA4C-FBB5-48CD-8CA0-F3B86E17B8CC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{55CE0538-5217-4C8B-A5A5-C962BEE87133}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C89544B7-D842-488B-B20E-0A527C10736E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{970FA1D6-0270-4635-A3B3-E4362AB07F7E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1363,7 +1363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF329F31-9E9F-4366-974C-2D291122F2C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0D089E-AB41-4855-8C82-B7A3F246161F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2680,18 +2680,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BE03A59-53AB-4033-8FDA-3736888DFF8C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{14310B00-B443-4D55-A4F0-99B22158900A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{32195462-1B4D-4D8E-8F39-2E4301072572}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2301FF3C-C225-4D67-AF1D-14837A97A78D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D4ED548-6F6E-417F-A96B-2BFBFEA4A1FD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{15714903-695C-476F-A142-72164497C50E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E173F06-A3CD-47B9-9AE4-16C009780877}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49455C2D-38C8-440D-8368-12E3D92024E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{883D5C97-722D-492D-A9D9-C7A138353C9A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2091411D-5D87-4243-BCD1-FAEFD4D44891}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEDBA2B8-54B9-47D8-862D-E85C2D24742F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B41689A5-C97B-4824-AC68-5EF76828A568}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{730EB35B-5A28-4DB2-B3E8-AEB203E4DDA4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A7DF5E3-4577-49EC-97A2-857B55A369BA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE43A238-199C-4615-9653-5E4575559B8B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52784380-5C73-4C74-92F5-6281A5ECA749}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{550AA390-5C1C-48D8-BD18-B7ACB3A792CE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A0E2107C-8FCD-46AE-B830-4DF7C9E3A55A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{186F3989-EE5F-495F-8AD1-570887637B0D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A15A970A-E0F9-43AA-B379-A77A8C048B4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D85C997E-BD7E-4907-9F44-36C6BF124C2F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{033F4942-7152-4A55-A560-E1EEC3C31FA7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB2E4F03-C71F-4458-9E8C-85C000FC2631}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{213C233C-603B-4FF4-9A92-C0E5BC03117A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2704,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A5806F-68A7-41DE-882F-E1CE035E9617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A579C9-2021-4647-B8ED-2C832449A717}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3989,18 +3989,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{17D431A8-E969-4F2C-ACFF-FBC6D2397687}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7151F513-A0B5-4426-865C-7F6632D59CD3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F210A19C-1A8C-4763-8C5D-74E3BA69F174}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51A6FF29-4196-4BEB-8978-A547BEB16ED3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B092395-7CB8-43C6-8B5A-4E122EEA1483}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8B3151B8-DBDB-4D8C-8A5E-6FA0F97F5F89}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8679B032-2194-47ED-8D13-6ABCF2D59D7D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C32BF39-1D09-401F-B209-CCC850ACE65D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1361CFC5-6CFE-4C51-8596-3D2CE7E47057}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{06CDABC1-A5C0-4AF9-94BA-8F9D0636A67B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84C63042-8B57-453C-81F4-2A641943B323}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A01E4D66-40C7-4C31-93AF-08AD72505040}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26A01010-EEFF-4531-A68B-61AC96DC7C9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C659360-9749-4EF1-ABD8-4BF3305C1A20}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A436FF8-3DF7-4FB0-87F6-7EC5019EBEE5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F22769EF-FE08-4662-B31F-93EB63DF2D44}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10F481A5-1D85-4695-971D-F15C5D2ED8F0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{387D4871-A309-4E9F-8251-1DDEF4D0899E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C42E1B1-A973-49E8-A796-5261FA62D3B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6AA8A93-7381-44FA-9C0A-D6D3FE0CCBE8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F5E892A3-866A-4FA4-BEFF-5A21B60E0084}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{88CEA987-6193-4F42-A904-25F2ED2A93D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C37104F-3421-481B-9042-010815DF78DF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AC4BA18-703A-4059-80F9-66D6DB436AF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4013,7 +4013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEECF9E0-9AE3-4228-B191-FF37B48DC659}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AF1A0E-FA62-47A2-A5FD-56997245B254}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5292,18 +5292,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7443E279-A7FF-4EEE-974E-849CEAE9294D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF3AA40C-8CC0-4EA2-BDBA-3F03A5921184}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{50944681-B1A2-449F-A011-F644E6D22DB0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{214EE2AB-40D9-40FE-9EBC-2D3B697C21B9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36B85C29-9AFE-4778-8619-318699EFFF3F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F8DFD971-C8D6-43BC-AD85-244C1390E5F4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5A419717-7F60-45A2-8BC0-C8AA1932C7DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F06211D-5B72-45F7-B2D7-E8C79C4F1424}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{22D5E0CF-466E-46A1-ADD7-2294E2AF9648}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{16551DBD-16B8-48A8-AB79-AC607063B89D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB0FA46E-F428-4285-93D9-9A43B549D4EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{721ACD10-971F-46F3-A3BC-B2D39C89E12E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39835BA3-DD45-495D-9EDD-D5132B85DACA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B16AAD7-F030-4686-A612-0943426B0D73}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2C972ED4-6837-4F28-9A5E-94C53E25C7F9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F7DD4B67-1479-4E01-8BF9-FFC21DC7A4C5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{352A59EC-3F9D-483B-8928-4290BD872549}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5930D876-125C-4CBB-AC47-757CAC080C1D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F11A5039-25C2-497E-A816-0CBBC4264D12}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7E2A0CD-387D-4E7B-A4FE-BA4BC59A8076}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D32A3315-6C26-4D85-9A35-BC460992FA2C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1D65698E-BCF7-4E8C-8DBB-5CF8E9845D56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D0A7457-D702-462C-A77D-081543055F34}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E1AA9AB-0FD6-4ABF-82C5-F3982B224815}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5316,7 +5316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D61F96-FF59-4541-9513-72E61A550B19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F916BEF7-AA5A-4271-873A-F2D0A4EC6AFA}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6588,18 +6588,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{950116F1-E8CA-44E0-A441-A14E3E72134F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17532481-C510-4D22-AFEF-BCA6DE34B6B8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3D272B96-387F-4A94-893C-6E4560487EA2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84D13CEE-857E-4C4A-9B9F-59259E7A2EB9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A4B12A6-4F40-4E26-B71D-117D2DF75E9E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C71B6F78-4369-4AAE-B11A-B65B68167573}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CA8C4E66-70C1-4BA7-AFDE-E74492183E56}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AD711B5-BD35-4913-902E-FE264355E74F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D038379D-8127-4A84-BD68-A2023372E153}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E8EDC404-F55D-4804-9B01-7E2968BB4916}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47C6A1AA-9244-4E6C-9A9B-7FB53A56C943}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D28129AF-EA51-47AE-9197-4E86368F6780}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11869852-3267-467F-8DB7-294F4B426983}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{840281FE-0EE7-454C-9D68-954321FBBA64}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B02E1EA-740F-4220-B29B-85EA2902F992}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6397990-E288-4E6D-A947-53477FD684A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{47DE28C0-1206-42F2-80A8-77B845A226FB}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1B22B56B-B2AB-4203-98EA-16830C2C0F65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CD4B177-93E5-4C4D-89CF-D29CE5F0C85B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBF3FDE3-E714-4E6D-A382-0BB6BCF11BA2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40E2336D-282C-410B-8C8F-C9419058CA7E}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C9F6676A-51B0-438A-9D62-2189F585222C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B094F4FF-7E5B-4A7A-A391-A9F207F29358}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{556AF779-F187-492D-A2A1-35076802841A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6612,7 +6612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65E39C6-B29E-4759-BE1A-F2E4D92756DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8909DBC-0997-41B3-BE02-8F645C99BF95}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7925,18 +7925,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{59E44E14-08F1-4914-80FE-9353E9F923AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87E7FC3A-23CC-467C-9C46-3A1EF56B7DBC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ABE2AA1C-EFE0-4115-8DFE-CCCCF018B093}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15A4879F-41E5-4798-ABE5-20F621B44005}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23C0C30B-1540-4086-8D91-C30AF25092EF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B94D7D95-96EF-40B6-B117-5057F11E3F20}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{503AD83F-5C4C-4865-9FC8-0A9E05B31C67}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC46D7F4-4202-4363-A02C-F5E04380276B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{274A67F8-D2D7-4D29-9019-960546897C44}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0AE4BB39-31A8-4239-B4C8-AEE90CC92F12}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42D66A6C-53C8-46B7-BE9C-9FE3EDB45B17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{610D3053-B9EB-46EC-B5ED-88AC73C1D192}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25920F83-7CFF-4723-9BCE-D1E09F634602}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BF840BA-3E41-49EA-B4BD-5CAC3C7BEEB4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A73F9A1-9248-421D-9630-20C20077DD2D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C63D2801-615C-42AC-8237-9B9BBA93D493}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA11F4E4-A08C-4CAF-A7E1-3BA2EFFDEFE0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DF2E4043-5CFA-4AB9-BEB1-EB8677B89425}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F13EDCC7-D8FC-490A-866D-3D33A6F24AF7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{476E1C9B-DA54-43F2-AC0C-C4DF503D72AE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EAFFB605-A588-4CB5-8A82-77F465328DAD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{852198E5-3F6B-46B2-9E46-50CFD40F24B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64B3FABC-398C-45AF-AD2A-28EFFA302A26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DCCCC01-5438-4A29-8930-74CEB8C64951}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7949,7 +7949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887708F9-2E15-435A-BCC1-12D0421AB684}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{127BE95B-E517-4CAD-A33D-C344BB6C5034}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9262,18 +9262,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9C479D5B-DE9A-4066-9B67-20A327E538FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A855D4FE-7DCA-45BD-AF63-6B105BE8AD11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{94ED1883-D95B-406C-8946-1B1930A8C9FB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6BB322D-E08D-4C90-AA55-6008FB14B9DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB0F1DF0-AEFE-441A-8863-EF906EA067CC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D13D86F-A216-480E-A1DE-DEF39F4EC8CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEE02EC3-4A69-45F4-A26E-B5FD1BCC1D33}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{67E4A461-9C9F-4F99-8512-C44C2FD3DE9E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{519DA631-69BF-4BF5-B927-F8253FD6C343}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{115BBA7A-8A34-49B1-896D-91E54E3E07F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21C90BB1-16B4-4434-BC1C-4786E7799A36}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF2E3B20-600A-4B77-A0BB-2DDAE9AB1B7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{954174ED-26E2-48B0-8266-2B39CA063CD8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F049F0E6-A73E-4B9D-AF18-39359CE1B6D3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DDA5045E-3D00-455E-9F1E-41806DCB8ECD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89092E26-E32F-4142-90FE-80457FF089EB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F4C67A0-ED1C-4D47-90DF-FAECA4EB6A5C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{45239240-7572-433E-A50C-F520CA87F3AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A086D0A2-35BB-4CF8-9846-99D21D4052EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE022A4C-5672-40FA-A550-671B888FB881}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{30DC2A13-AE58-4C16-B4AD-1793C5C72947}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C3C0418E-BEC5-4ED4-AA47-D3E2777588DC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{79C4F374-6BA5-40C2-8A0C-3606A73FE961}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AA87AF2-EEBF-4727-B383-1ABCF3FB162A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9286,7 +9286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6D3845-5A8F-4A57-B4B9-EB804971B426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9164B914-B347-4758-854A-02285EB51F05}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10599,18 +10599,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CDE0FF5-CC5A-4EEC-90D7-1FA23AB8EDA3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3482AF3A-8BFE-4F19-92E3-159DE039566D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B117112-67F3-4A19-92FC-1CC85E99DFEC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D3882BAB-6FB9-4314-B47E-B97D02A0596F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA75B5C0-F51C-4CAA-A878-F871638EC458}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DA89DEF0-EF12-46D1-B1FC-AB6ACE81E950}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{846478E9-BA69-46E6-8093-54EF2ED874CD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A949FD8-EE49-4EF3-AE4C-183DD4D082B2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64AB1D26-369A-40F1-AC75-42FAB62A38B8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DF7BF6FB-0C4A-4AC4-943F-309141F77143}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15FA5A0A-29F2-48FD-98ED-3DC4E8065CA0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C57932D1-1868-4173-9F3E-2CABA9CE5B9C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC9A31B3-8322-4214-912A-FB92F1B461E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DA84F6DA-71DC-4F3D-971C-3A1508913375}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BCB8F214-5B8C-4078-B97E-2FBAC1A7A81B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8CD3F106-47BB-4974-92B0-B0265BD0F886}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF1EB335-45D9-4378-AEC5-DB464637B1C7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D962AAC1-0799-4F8B-B10C-C53247DBE74E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2202E077-E972-45F9-B1A8-0142243EE454}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E05F9453-DA59-4639-9907-6D65F805BD31}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51AB9B18-4E0D-4601-B4EB-90A16DCDE600}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{630ED472-698B-48B8-9B7D-0F8B4C206C12}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBCBDE6E-3816-4A19-AF37-CA37F79257F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F31AEA9-83A4-401D-980E-AC6A528970D8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10623,7 +10623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829B2DA-341C-4987-95B9-41FB3F16D65C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C12521-091B-445A-A250-161B7BE95D25}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11936,18 +11936,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FBDDB27-AD98-404F-B727-C038C6BDFC6B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F988CFC-EF39-4F8C-9D08-2BF0916BE491}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2E413883-80AF-44EB-BFF5-5B1FE506CAB2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14BC4381-F816-41FF-8832-777407245E13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8731DAEA-B17C-4760-AA52-0A90DD4070C8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A3AF2658-2BE3-4DD9-ADE8-C9ED2110A4C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1362CD65-B0B9-4CDD-A437-A0F559003602}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F1927EF-5387-49F4-841E-F526E622BBCB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{354F0C3E-C4F8-46A6-B9A6-380D068D20EE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C5E9F653-581C-4C6D-9E1F-3DE4E63FF460}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E8D158C-C06B-4A55-BFE6-92536C3C94C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15C262D3-4918-4DDA-B660-4C46130D504C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CEDE37F1-463E-449A-B5E7-F509774531C9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{997E098E-5C28-408D-B1C7-11AEB963F4CF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5F0242DD-E691-4C19-B0E5-4FB244A1BF71}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{76C47F60-F222-4B27-A874-A7A99EABBF4A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0423E2F-D668-437D-B72F-C3FF031D4B40}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D6838815-A490-42C7-9124-756834336F41}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{73A7B370-B73A-4EC4-A846-9CB715892664}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD24854C-5229-494B-8F42-922DDCC50B59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{24BF908D-8619-41C8-BC2D-ADA449621D19}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{65AA73B1-1319-4D8D-8E92-501B30559C22}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FC16150-27AA-4B59-91F3-B46E98A9FED2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B852CB8F-1F06-48E3-B50C-A0CF030EA944}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11960,7 +11960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F059446-85B8-49FC-A9AB-CB3CB53679E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88E775E-CC45-456D-AD8E-009A138F9378}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13261,18 +13261,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EC64553-E1BB-4BFA-A0EA-C7BBEEF13331}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE6797C2-9882-4E2C-A72C-B8C04777059F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9BFF8556-A82B-4771-9368-75D4B732A161}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9DC799E7-064B-4961-A075-8CFEE9AFAFB5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AFB693A-C532-494D-87FC-D9B8A8EC005E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{71010CFD-63B8-4F6D-A873-0A401E93AAA0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A07AD29-C393-4986-8275-85C1C61A4D4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{633C9F09-78EA-46AE-A391-5BC6E9CEC5A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91D7B3C3-FD3F-4E30-ACD9-88F481454679}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6CCC13D4-87C5-4BA8-A698-61ADA7704D22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F29E21D9-1DE5-476A-9677-F9D704F57DFD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29E7EE9B-FDDF-4AFC-AD01-98110D9107B6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47D9B1A4-183D-42DC-8DBE-754FBA7C79F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6687EE70-FC24-47CA-AE2F-A5E00117001D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BA2BC40-7AF0-41D2-9AC5-1F25E42F3841}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9319573-CB77-4991-88FC-F78B08539E36}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECF7C13F-4123-4ABB-B0A6-35B4D15008CD}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F129954-EF59-4091-B764-BA8FE7D1AD03}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D8C4DC1-447A-46E4-8222-14A135A93223}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAD68FA7-FCED-4C0C-A1C6-EDE1C89F0DD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D31037E1-7E01-46A7-85D0-E596D3C310A1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F82EDEB1-83BD-4E1C-8C64-F2E6E455110F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4F7B327-940E-4035-A5D3-732C0E9D00D7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9BE8209-7C15-4BC0-95EA-465C7030A578}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13285,7 +13285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21028B04-CE08-4FDA-A3FE-CD4D541C50C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DE7154-C943-42B7-B2EB-4A31C4895CC8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14574,18 +14574,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41671DD1-A6E0-4AFA-8F41-FC3D63CF4D8B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F6FEBF6-EC63-4951-893B-DCCBC303C50D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{417760A8-1633-42D0-9C63-1F121022F215}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{464743B9-B160-40A5-8338-189C5F8E1ACE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA275E0A-3646-429B-89C7-4BAD109F2F2C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3CFD2C05-4FD2-4C8B-8158-ED6D72CD3E2D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45892DB0-4F82-43CF-8406-F702F0D20014}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9DB01BC-A27C-421E-A0FE-7DD6AD6C5C44}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6907E942-D2AC-48F1-B8F8-A66CF7259514}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9D7D8548-C92F-44A3-A7F9-E7F7975E9560}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A432091F-6292-4A0C-835A-4C2CD587EE16}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2F1CD38-90FD-466B-9BFA-B55B9C430844}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E6A2F71-58CC-4C74-837C-5BC2199191FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47F299C9-47AA-4251-937E-8E4F3269197E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BDECA335-0770-46C1-B4C4-C83CBECED557}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17544B0B-6000-459F-B02B-075F1C7C4D08}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2E4C734-B6AE-4283-B789-00A68F7F0108}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E829857C-F6C1-426D-BB26-C86099E6A0B7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6DEA2EE8-1461-4E79-995C-EF85B8D7A402}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5687EAA4-9DC3-4962-B0CD-B73FBB0A0C85}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BAFE0E81-8594-4F10-A812-8F6603F54B37}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{773BCE95-5C9C-4F9D-8F9C-89D9637990E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17F6B68E-5F01-4221-82FB-F3C867D65552}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2947BE0-FF92-4D8D-9926-81B3D35BDAAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14598,7 +14598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F6D8FC-79BE-4663-A831-735F6A84094E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847C4BC5-0FD6-4F11-8405-6321023707C3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15883,18 +15883,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9544D906-8405-49B5-871C-0254D52F0775}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{354BEDFA-0FDE-49B4-B699-3A5A28CB9F10}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D700F77-7E0D-4704-B5B4-2057E334CB72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1D96B2C8-F420-4627-9700-5822F028F6BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F627E4D3-FBD8-4C42-9E06-19C19BEAEBD7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{55F92C8F-5135-4DE4-8335-466CC2A433AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8F0CA76-3AF0-46A5-A125-2D537E070D16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95DBF251-7A28-4E8F-8664-27C9721672BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{979125E5-D7FF-4BC4-B474-9C5A0D394805}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E1C74353-70E3-4845-B41F-7A3DA1483137}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66D67E6D-6017-47CB-9313-6A9046E2D2C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4AF60430-14AD-4F4F-A75F-92F450947BED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8DE84033-713B-41DB-83AF-C06B58303855}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF21FA83-93A0-40ED-936A-61116111BA06}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF759903-970A-4040-9BC6-9508F2813734}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D30912AC-C2F6-49BE-A423-FB390A390271}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD48552F-398D-452D-A32D-5247E4899E74}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB32A471-5740-4627-82CE-A9C0531B2769}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B96C764D-FB3A-4928-822E-B07D818F3E6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1E14402-C0BF-4656-9E3D-D496B2AB1F7E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C6ABB4A-CC07-4C3F-9C6D-2AD3CA09DCAB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{69525E50-E9BC-4133-B8CC-EECCE2F13EF3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CF2F0A3-0949-473E-82ED-EFCF4CC0E076}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B9F95085-99A0-4C18-9627-83893AC4FE0E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15907,7 +15907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C13EE7B-2D5A-45A5-B098-E5A7136CC56B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4AAED7-7833-4E46-9868-010CEDE8B5DB}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17192,18 +17192,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33C57C27-CAE9-4137-8564-59480BEF56DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{878A1F74-5FD1-4ECB-AE4C-E8B9CE01F4D8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2056DA29-107E-437C-ADBE-7012B62A5038}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CDF330CE-EF40-4A5D-9B62-67C04A68D11A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C455BFF-3700-4E1F-A214-3E5F0E1C23BF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{25816044-FE7D-4E41-B543-DCA93A57A476}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E89607E-3DD8-4AE4-8CEF-7D3FF4BE1CE9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6070C048-8158-4820-8BF0-C5263710004B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18268ACC-29DF-4E7B-AF13-77AF2F77B30C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BC1FD791-4CB2-4D2F-81FA-E18757FE2A0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FD52172-6F1D-4FA9-9D6F-55361826F639}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D8E02F6-3E2C-4423-AE4A-E48D79E8C15B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{230A44B5-CE93-4071-A022-8CA6C1AFFB18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6717F42D-C893-4EFB-9AB6-F6F44C5C5FE1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF5A4FEA-3553-4F89-A103-BE0E3A02FCEA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{123AB270-5305-46A8-AC43-1D109A54F1C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0795CE76-965D-4E7D-BD72-6459775AD7C7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{160D9DD8-144A-4668-95D0-2DFC2543C84D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D871FC48-AFB1-4D1C-937C-FA5251E3CB88}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00AA3AFF-39F8-4EC5-9A34-11F5F49B78DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2267E1D9-D9AB-4BC9-8A88-29C64A29A9BC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6DE791EF-2702-46A5-91C8-8B15A5ED4C70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{50410613-9B33-431C-A1A7-FCEAB69BC3B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA7EDBD3-D5AF-4ECC-B3A9-DB176E5A4A1F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
